--- a/Admin and Documentation/COSPartsList.xlsx
+++ b/Admin and Documentation/COSPartsList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joe.myers\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwalk\Documents\GitHub\Practice\Admin and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
